--- a/TradingSimula_18-2022/TF-BollPdigm.xlsx
+++ b/TradingSimula_18-2022/TF-BollPdigm.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-5438.400000000022</v>
+        <v>23735.7799999995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>10017.99999999995</v>
+        <v>-73501.19000000012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>10726.59999999993</v>
+        <v>16653.93749999965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>11294.19999999989</v>
+        <v>-232818.6375000013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-9510.00000000012</v>
+        <v>-183490.4075000018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-25607.00000000012</v>
+        <v>-108383.8725000017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-26450.80000000009</v>
+        <v>-167510.2225000011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-28546.40000000011</v>
+        <v>-341899.9225000005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>-33175.60000000011</v>
+        <v>-263356.2724999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>-36902.20000000013</v>
+        <v>-420478.4975000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>-46674.20000000011</v>
+        <v>-387588.5975000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>-49869.60000000009</v>
+        <v>-287429.9475000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>-38490.60000000011</v>
+        <v>-445034.8225000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>-31920.4000000001</v>
+        <v>-492083.7225000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-13542.80000000016</v>
+        <v>-402340.8725000002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>-6281.600000000162</v>
+        <v>-489117.4275000003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>-39430.20000000015</v>
+        <v>-497609.1474999995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>-51028.40000000015</v>
+        <v>-541871.9024999994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>-59767.80000000013</v>
+        <v>-357761.6174999993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>-79396.00000000015</v>
+        <v>-210561.6074999994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>-56150.00000000019</v>
+        <v>-67068.5524999996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>-81436.40000000017</v>
+        <v>-221094.0024999995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>-84836.40000000018</v>
+        <v>-216017.2024999995</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>-78852.60000000019</v>
+        <v>-396460.1274999995</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>-77699.60000000017</v>
+        <v>-387517.4024999997</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>-93537.00000000017</v>
+        <v>-387165.4724999997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>-94381.2000000002</v>
+        <v>-407321.4699999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>-91375.40000000018</v>
+        <v>-670779.4949999996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>-81794.2000000002</v>
+        <v>-464267.0949999997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>-80322.60000000019</v>
+        <v>-692828.2199999997</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>-90072.60000000019</v>
+        <v>-750722.5449999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>-96012.60000000021</v>
+        <v>-858567.7199999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>-91672.60000000021</v>
+        <v>-800625.7449999995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>-95122.60000000022</v>
+        <v>-1089940.269999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>-98949.40000000021</v>
+        <v>-1072927.244999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>-103578.0000000003</v>
+        <v>-1310350.495</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>-98868.60000000034</v>
+        <v>-1299123.447499999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>-114301.4000000004</v>
+        <v>-1453007.575</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>-116591.4000000003</v>
+        <v>-1662649.725</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>-126242.2000000003</v>
+        <v>-1718331.485</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>-131715.2000000003</v>
+        <v>-1770732.090000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>-138000.8000000003</v>
+        <v>-1712880.040000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>-146337.8000000003</v>
+        <v>-1776784.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>-141226.6000000004</v>
+        <v>-1781580.94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>-154144.0000000003</v>
+        <v>-1779016.515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>-153861.8000000003</v>
+        <v>-1526699.880000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>-165690.8000000003</v>
+        <v>-1729521.430000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>-176852.8000000003</v>
+        <v>-1143506.9825</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-156005.2000000003</v>
+        <v>-750872.5600000004</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>-151227.2000000003</v>
+        <v>-3531.715000000564</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>-161548.6000000003</v>
+        <v>604521.1899999997</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>-156229.2000000002</v>
+        <v>-610982.0325000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>-162287.8000000003</v>
+        <v>-675194.9575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>-164002.0000000003</v>
+        <v>-546425.6574999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>-170505.6000000003</v>
+        <v>-453060.8325000007</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-174815.6000000003</v>
+        <v>309601.0924999994</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-164084.8000000003</v>
+        <v>-21611.98250000043</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-151874.6000000003</v>
+        <v>-514507.2275000013</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-135558.0000000003</v>
+        <v>-403355.7150000011</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>-101523.8000000003</v>
+        <v>-1095521.715000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-89711.20000000027</v>
+        <v>-826063.8650000013</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-103184.6000000003</v>
+        <v>-1143413.715000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>-95204.60000000027</v>
+        <v>-528747.1150000013</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>-98004.60000000027</v>
+        <v>-239209.5650000015</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-100364.6000000003</v>
+        <v>-473677.0650000027</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-93560.20000000026</v>
+        <v>-460985.3900000021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-94197.40000000026</v>
+        <v>-610099.492500003</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-99570.00000000026</v>
+        <v>-202602.2975000024</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-86611.40000000026</v>
+        <v>-498875.0675000019</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-85871.40000000026</v>
+        <v>-525725.2375000017</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-87235.40000000027</v>
+        <v>108317.6624999983</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-74167.00000000029</v>
+        <v>586472.3124999981</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>-67023.00000000026</v>
+        <v>1012050.302499998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-58661.40000000026</v>
+        <v>885959.4674999984</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>-70357.20000000027</v>
+        <v>1603034.067499999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>-84941.40000000029</v>
+        <v>4546404.917499999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>-78440.20000000029</v>
+        <v>4905462.842499997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-80884.80000000028</v>
+        <v>3577206.797499998</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-97654.20000000029</v>
+        <v>4059378.797499998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-118708.0000000003</v>
+        <v>4426813.697500003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-120126.4000000003</v>
+        <v>5150925.297500004</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>-130895.4000000003</v>
+        <v>6563709.672500005</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-136475.4000000003</v>
+        <v>5686109.157500004</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>-134194.8000000003</v>
+        <v>6007513.945000004</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-136481.4000000003</v>
+        <v>6308827.332500005</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-128211.6000000004</v>
+        <v>6050270.357500005</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-140054.6000000004</v>
+        <v>4966312.957500004</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-145655.0000000003</v>
+        <v>5853356.0075</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-150766.0000000003</v>
+        <v>5193061.015000002</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-152525.4000000003</v>
+        <v>5011815.065000003</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>-154326.4000000004</v>
+        <v>4306431.590000004</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-154866.4000000004</v>
+        <v>2343629.465000004</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-152506.6000000004</v>
+        <v>1860255.665000005</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>-147859.4000000003</v>
+        <v>1418109.090000004</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>-143064.6000000003</v>
+        <v>990934.8650000051</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>-137442.6000000003</v>
+        <v>1909516.790000002</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>-135857.0000000003</v>
+        <v>1316524.915000002</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>-148983.6000000003</v>
+        <v>2365778.415000002</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>-151243.6000000003</v>
+        <v>1000051.390000003</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>-148863.6000000003</v>
+        <v>985613.8150000016</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>-151038.0000000003</v>
+        <v>1237529.140000003</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>-152140.8000000003</v>
+        <v>1368697.500000002</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>-158285.0000000003</v>
+        <v>-543011.4574999961</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>-158326.8000000003</v>
+        <v>-1709639.742499994</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>-159976.8000000003</v>
+        <v>-1004594.762499993</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>-169581.8000000003</v>
+        <v>3182696.785000007</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>-140280.4000000003</v>
+        <v>3471259.650000007</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>-138635.6000000003</v>
+        <v>3543768.305000006</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-155221.8000000003</v>
+        <v>3893040.010000007</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-160042.0000000003</v>
+        <v>4002886.055000006</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-145545.4000000003</v>
+        <v>3357913.732500006</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>-152908.2000000003</v>
+        <v>3416454.902500007</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-163164.6000000003</v>
+        <v>4203158.475000007</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>-172573.0000000003</v>
+        <v>3401352.015000006</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>-178100.8000000003</v>
+        <v>3223669.740000007</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-176895.4000000003</v>
+        <v>3525041.715000006</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-171212.0000000003</v>
+        <v>3321325.985000007</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>-168879.8000000003</v>
+        <v>2708522.595000006</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-157672.4000000003</v>
+        <v>4031579.000000007</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-162127.0000000003</v>
+        <v>2685857.110000008</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-166516.0000000002</v>
+        <v>944061.5850000058</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-152077.4000000003</v>
+        <v>368345.7550000062</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>-106225.4000000003</v>
+        <v>-67682.11499999461</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>-91018.20000000024</v>
+        <v>-1509006.599999996</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>-110587.0000000003</v>
+        <v>-2386806.534999995</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>-120518.8000000003</v>
+        <v>-301985.6749999984</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>-117138.8000000003</v>
+        <v>-144015.6849999985</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>-110028.2000000003</v>
+        <v>-158709.7999999984</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>-122625.0000000003</v>
+        <v>1188177.455000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>-138927.2000000003</v>
+        <v>2798319.265000004</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>-154347.4000000003</v>
+        <v>4801146.025000002</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>-147161.8000000003</v>
+        <v>7728173.810000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>-137617.0000000003</v>
+        <v>5747556.225000002</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>-124151.4000000003</v>
+        <v>6502878.235000002</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>-128818.8000000003</v>
+        <v>7770397.320000004</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>-120038.4000000003</v>
+        <v>12903602.485</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>-112117.6000000003</v>
+        <v>5319300.185000002</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>-105220.0000000003</v>
+        <v>5555937.520000002</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>-117689.2000000003</v>
+        <v>4181538.445000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>-129144.6000000002</v>
+        <v>7589069.760000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>-122926.4000000002</v>
+        <v>9005631.759999996</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>-122766.4000000002</v>
+        <v>5525734.302499998</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>-156399.6000000002</v>
+        <v>6501835.102499997</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>-157909.6000000002</v>
+        <v>9135837.832499998</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>-166086.2000000002</v>
+        <v>6374542.937499999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>-151737.4000000002</v>
+        <v>5430768.817499998</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4940452.757499996</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4894312.047499997</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4541322.097499996</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4210835.397499998</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4331616.674999996</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5278251.822499988</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6619804.917499989</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5021849.857499989</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4001027.827499989</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3499000.024999993</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3487990.679999991</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2561423.314999994</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2677912.434999993</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5301021.042499994</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6046487.787499992</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7993211.992499993</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7749733.127499992</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5748574.077499994</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5071595.652499994</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6043401.552499985</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5290758.602499988</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5202127.002499986</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4266662.552499986</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3400739.852499987</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2740529.952499987</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2856857.944999987</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2866623.714999988</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2632693.80749999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2075974.842499991</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1653960.227499989</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2473060.469999989</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2962531.41999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3650935.019999988</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3614810.922499987</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3344495.367499987</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2403639.992499988</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2274729.342499987</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2465992.242499987</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2204987.279999987</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1985596.422499988</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1953600.867499988</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1344409.867499989</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1619732.857499989</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1896057.929999991</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1241290.164999991</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1252040.61999999</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1868339.479999991</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1345846.899999991</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>963978.6249999907</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1856028.38499999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>979443.5149999901</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1398729.88499999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2301626.59999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1293109.58499999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2316045.43249999</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1559115.792499991</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1916891.142499992</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1278520.057499992</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1952063.127499992</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1720845.707499991</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1795753.692499993</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1931911.302499995</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1729212.777499996</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1471411.744999994</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>550330.6224999963</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>749471.5999999967</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-463774.6250000036</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>38465.45999999416</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>450652.3849999957</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-245956.5750000056</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-543903.8050000052</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-803498.9050000047</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-361904.0550000131</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-193424.7775000128</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1041185.289999987</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-97161.74250001303</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-160230.0725000126</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>798911.4999999865</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>252584.9549999878</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>849739.1049999886</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>955966.5749999878</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>772031.9249999892</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>937454.0249999901</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>751301.5999999917</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>535901.6249999907</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>370993.0499999899</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>296904.8899999913</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-244345.3500000091</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>79059.91499999107</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>731416.9599999932</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-60725.97500000507</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>268320.1449999937</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>564143.3074999916</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>243578.0874999953</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-101279.6775000044</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-1203977.687500006</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>845150.3374999944</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-230804.1125000057</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-290241.2875000057</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-663832.5025000055</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1082180.722499994</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3723699.674999994</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>812579.504999995</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>682631.3899999936</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>623648.9049999937</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>929169.9999999932</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>66084.80249999385</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1356399.124999993</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>743314.5349999923</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>841156.3249999958</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>663584.1299999926</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-655174.307500007</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-210411.7375000082</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>335739.3924999903</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1501575.944999992</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>468207.464999994</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1384676.194999997</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1938202.675</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2117238.63</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2232199.355</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>-112205.8000000002</v>
+      <c r="B269" t="n">
+        <v>339049.5550000008</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-773953.9700000004</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-989627.6950000018</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-476711.7450000015</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-275258.1700000014</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>844471.5499999983</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>538977.3874999977</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1010015.347499999</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>165029.9875000014</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1464004.112500001</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2581567.162500002</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1401063.237499998</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-770621.9124999985</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-985889.6624999966</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-2559411.762499999</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-3230952.702499999</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-3000223.237499998</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-3768170.352500002</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-1743556.002500006</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-1893025.012500005</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-2590512.752500003</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-3234698.062500002</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-3911444.0275</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-2859116.342499997</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-3769561.384999995</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-2405704.772499995</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-548001.2774999951</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-1560550.744999995</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-1204444.912499995</v>
       </c>
     </row>
   </sheetData>
